--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="108">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,12 +46,12 @@
     <t>useless</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>stopped</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>returned</t>
   </si>
   <si>
@@ -64,121 +64,127 @@
     <t>negative</t>
   </si>
   <si>
+    <t>loves</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>loves</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
+    <t>pleased</t>
   </si>
   <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
     <t>salad</t>
   </si>
   <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>family</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>rice</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cakes</t>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>bread</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>cheese</t>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>ze</t>
   </si>
   <si>
     <t>cooks</t>
   </si>
   <si>
-    <t>ze</t>
+    <t>nice</t>
   </si>
   <si>
     <t>ever</t>
   </si>
   <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>gift</t>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>popcorn</t>
@@ -187,52 +193,37 @@
     <t>years</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>baking</t>
+    <t>old</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>cream</t>
   </si>
   <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>cooking</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
+    <t>simple</t>
+  </si>
+  <si>
     <t>cook</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>always</t>
+    <t>highly</t>
   </si>
   <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>highly</t>
+    <t>w</t>
   </si>
   <si>
     <t>day</t>
@@ -241,33 +232,36 @@
     <t>good</t>
   </si>
   <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>gr</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>works</t>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>far</t>
   </si>
   <si>
     <t>exactly</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
@@ -277,33 +271,39 @@
     <t>also</t>
   </si>
   <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>makes</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>clean</t>
+    <t>cup</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>last</t>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>worth</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
     <t>hot</t>
   </si>
   <si>
@@ -316,25 +316,22 @@
     <t>one</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>use</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>made</t>
   </si>
   <si>
     <t>product</t>
@@ -698,7 +695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q94"/>
+  <dimension ref="A1:Q93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -709,7 +706,7 @@
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -767,13 +764,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -785,19 +782,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="L3">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="M3">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -809,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -817,13 +814,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -835,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K4">
-        <v>0.9247311827956989</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="L4">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="M4">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -859,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -867,13 +864,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4339622641509434</v>
+        <v>0.4263565891472868</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -885,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>18</v>
@@ -917,13 +914,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3953488372093023</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -935,19 +932,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K6">
-        <v>0.8695652173913043</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -959,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -967,13 +964,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3535353535353535</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -985,19 +982,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8544891640866873</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L7">
-        <v>552</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>552</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1009,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>94</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1017,13 +1014,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.282051282051282</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1035,19 +1032,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K8">
-        <v>0.8405797101449275</v>
+        <v>0.8560371517027864</v>
       </c>
       <c r="L8">
-        <v>58</v>
+        <v>553</v>
       </c>
       <c r="M8">
-        <v>58</v>
+        <v>553</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1059,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1067,13 +1064,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1351351351351351</v>
+        <v>0.1243243243243243</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1085,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K9">
-        <v>0.7954545454545454</v>
+        <v>0.8051948051948052</v>
       </c>
       <c r="L9">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="M9">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1109,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1117,13 +1114,13 @@
         <v>23</v>
       </c>
       <c r="K10">
-        <v>0.7662337662337663</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="L10">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="M10">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1135,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1143,13 +1140,13 @@
         <v>24</v>
       </c>
       <c r="K11">
-        <v>0.7229437229437229</v>
+        <v>0.7445887445887446</v>
       </c>
       <c r="L11">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M11">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1161,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1169,13 +1166,13 @@
         <v>25</v>
       </c>
       <c r="K12">
-        <v>0.7111111111111111</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L12">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M12">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1187,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1195,13 +1192,13 @@
         <v>26</v>
       </c>
       <c r="K13">
-        <v>0.6712328767123288</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L13">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="M13">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1213,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1221,13 +1218,13 @@
         <v>27</v>
       </c>
       <c r="K14">
-        <v>0.6619718309859155</v>
+        <v>0.688135593220339</v>
       </c>
       <c r="L14">
-        <v>47</v>
+        <v>203</v>
       </c>
       <c r="M14">
-        <v>47</v>
+        <v>203</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1239,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1247,13 +1244,13 @@
         <v>28</v>
       </c>
       <c r="K15">
-        <v>0.6474576271186441</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="L15">
-        <v>191</v>
+        <v>33</v>
       </c>
       <c r="M15">
-        <v>191</v>
+        <v>33</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1265,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1273,13 +1270,13 @@
         <v>29</v>
       </c>
       <c r="K16">
-        <v>0.6458333333333334</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1291,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1299,13 +1296,13 @@
         <v>30</v>
       </c>
       <c r="K17">
-        <v>0.6428571428571429</v>
+        <v>0.65625</v>
       </c>
       <c r="L17">
-        <v>801</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>801</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1317,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>445</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1325,13 +1322,13 @@
         <v>31</v>
       </c>
       <c r="K18">
-        <v>0.6</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="L18">
-        <v>39</v>
+        <v>812</v>
       </c>
       <c r="M18">
-        <v>39</v>
+        <v>812</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1343,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>26</v>
+        <v>434</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1351,13 +1348,13 @@
         <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L19">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M19">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1369,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1377,13 +1374,13 @@
         <v>33</v>
       </c>
       <c r="K20">
-        <v>0.59375</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1403,13 +1400,13 @@
         <v>34</v>
       </c>
       <c r="K21">
-        <v>0.5921052631578947</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L21">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M21">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1421,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1429,13 +1426,13 @@
         <v>35</v>
       </c>
       <c r="K22">
-        <v>0.5918367346938775</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1447,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1455,13 +1452,13 @@
         <v>36</v>
       </c>
       <c r="K23">
-        <v>0.5897435897435898</v>
+        <v>0.6</v>
       </c>
       <c r="L23">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M23">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1473,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1481,13 +1478,13 @@
         <v>37</v>
       </c>
       <c r="K24">
-        <v>0.5897435897435898</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L24">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M24">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1499,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1507,13 +1504,13 @@
         <v>38</v>
       </c>
       <c r="K25">
-        <v>0.5882352941176471</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1525,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1533,13 +1530,13 @@
         <v>39</v>
       </c>
       <c r="K26">
-        <v>0.5873015873015873</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1551,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1559,13 +1556,13 @@
         <v>40</v>
       </c>
       <c r="K27">
-        <v>0.5865384615384616</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="L27">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="M27">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1577,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1585,13 +1582,13 @@
         <v>41</v>
       </c>
       <c r="K28">
-        <v>0.5833333333333334</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L28">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1603,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1611,13 +1608,13 @@
         <v>42</v>
       </c>
       <c r="K29">
-        <v>0.5789473684210527</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="L29">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="M29">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1629,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1637,13 +1634,13 @@
         <v>43</v>
       </c>
       <c r="K30">
-        <v>0.5771428571428572</v>
+        <v>0.5269461077844312</v>
       </c>
       <c r="L30">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="M30">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1655,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1663,13 +1660,13 @@
         <v>44</v>
       </c>
       <c r="K31">
-        <v>0.5735294117647058</v>
+        <v>0.5245901639344263</v>
       </c>
       <c r="L31">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M31">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1689,13 +1686,13 @@
         <v>45</v>
       </c>
       <c r="K32">
-        <v>0.5692307692307692</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L32">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M32">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1707,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1715,13 +1712,13 @@
         <v>46</v>
       </c>
       <c r="K33">
-        <v>0.5389221556886228</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L33">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="M33">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1733,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1741,13 +1738,13 @@
         <v>47</v>
       </c>
       <c r="K34">
-        <v>0.5299145299145299</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="L34">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="M34">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1759,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1767,25 +1764,25 @@
         <v>48</v>
       </c>
       <c r="K35">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="L35">
+        <v>49</v>
+      </c>
+      <c r="M35">
+        <v>49</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>51</v>
-      </c>
-      <c r="M35">
-        <v>51</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>49</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1793,13 +1790,13 @@
         <v>49</v>
       </c>
       <c r="K36">
-        <v>0.5060240963855421</v>
+        <v>0.4868421052631579</v>
       </c>
       <c r="L36">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M36">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1811,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1819,13 +1816,13 @@
         <v>50</v>
       </c>
       <c r="K37">
-        <v>0.4897959183673469</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="L37">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="M37">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1837,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>25</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1845,13 +1842,13 @@
         <v>51</v>
       </c>
       <c r="K38">
-        <v>0.4814814814814815</v>
+        <v>0.4691358024691358</v>
       </c>
       <c r="L38">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M38">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1863,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1871,13 +1868,13 @@
         <v>52</v>
       </c>
       <c r="K39">
-        <v>0.443609022556391</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="L39">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="M39">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1889,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>74</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1897,25 +1894,25 @@
         <v>53</v>
       </c>
       <c r="K40">
-        <v>0.4262295081967213</v>
+        <v>0.4176904176904177</v>
       </c>
       <c r="L40">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="M40">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>35</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1923,13 +1920,13 @@
         <v>54</v>
       </c>
       <c r="K41">
-        <v>0.4216867469879518</v>
+        <v>0.4135338345864661</v>
       </c>
       <c r="L41">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="M41">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1941,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1949,13 +1946,13 @@
         <v>55</v>
       </c>
       <c r="K42">
-        <v>0.4210526315789473</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="L42">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M42">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1967,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1975,13 +1972,13 @@
         <v>56</v>
       </c>
       <c r="K43">
-        <v>0.4085603112840467</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="L43">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="M43">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1993,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>152</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2001,13 +1998,13 @@
         <v>57</v>
       </c>
       <c r="K44">
-        <v>0.4032258064516129</v>
+        <v>0.3815789473684211</v>
       </c>
       <c r="L44">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M44">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2019,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2027,13 +2024,13 @@
         <v>58</v>
       </c>
       <c r="K45">
-        <v>0.3928571428571428</v>
+        <v>0.3579766536964981</v>
       </c>
       <c r="L45">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="M45">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2045,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>34</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2053,13 +2050,13 @@
         <v>59</v>
       </c>
       <c r="K46">
-        <v>0.3833333333333334</v>
+        <v>0.3533834586466165</v>
       </c>
       <c r="L46">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="M46">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2071,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>37</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2079,13 +2076,13 @@
         <v>60</v>
       </c>
       <c r="K47">
-        <v>0.3823529411764706</v>
+        <v>0.3452054794520548</v>
       </c>
       <c r="L47">
-        <v>26</v>
+        <v>252</v>
       </c>
       <c r="M47">
-        <v>26</v>
+        <v>252</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2097,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>42</v>
+        <v>478</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2105,13 +2102,13 @@
         <v>61</v>
       </c>
       <c r="K48">
-        <v>0.3809523809523809</v>
+        <v>0.3382352941176471</v>
       </c>
       <c r="L48">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M48">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2123,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2131,13 +2128,13 @@
         <v>62</v>
       </c>
       <c r="K49">
-        <v>0.3725490196078431</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L49">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="M49">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2149,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>256</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2157,13 +2154,13 @@
         <v>63</v>
       </c>
       <c r="K50">
-        <v>0.3603603603603603</v>
+        <v>0.3237410071942446</v>
       </c>
       <c r="L50">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M50">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2175,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2183,13 +2180,13 @@
         <v>64</v>
       </c>
       <c r="K51">
-        <v>0.3453237410071943</v>
+        <v>0.3194444444444444</v>
       </c>
       <c r="L51">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="M51">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2201,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>91</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2209,13 +2206,13 @@
         <v>65</v>
       </c>
       <c r="K52">
-        <v>0.3425925925925926</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="L52">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M52">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2227,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2235,13 +2232,13 @@
         <v>66</v>
       </c>
       <c r="K53">
-        <v>0.3424657534246575</v>
+        <v>0.3063063063063063</v>
       </c>
       <c r="L53">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="M53">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2253,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>480</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2261,13 +2258,13 @@
         <v>67</v>
       </c>
       <c r="K54">
-        <v>0.3333333333333333</v>
+        <v>0.3062200956937799</v>
       </c>
       <c r="L54">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="M54">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2279,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>56</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2287,13 +2284,13 @@
         <v>68</v>
       </c>
       <c r="K55">
-        <v>0.3062200956937799</v>
+        <v>0.2980132450331126</v>
       </c>
       <c r="L55">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="M55">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2305,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>145</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2313,13 +2310,13 @@
         <v>69</v>
       </c>
       <c r="K56">
-        <v>0.3055555555555556</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="L56">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M56">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2331,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2339,13 +2336,13 @@
         <v>70</v>
       </c>
       <c r="K57">
-        <v>0.3007518796992481</v>
+        <v>0.2871287128712871</v>
       </c>
       <c r="L57">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M57">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2357,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2365,13 +2362,13 @@
         <v>71</v>
       </c>
       <c r="K58">
-        <v>0.2980132450331126</v>
+        <v>0.2497308934337998</v>
       </c>
       <c r="L58">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="M58">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2383,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>106</v>
+        <v>697</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2391,13 +2388,13 @@
         <v>72</v>
       </c>
       <c r="K59">
-        <v>0.2972972972972973</v>
+        <v>0.24</v>
       </c>
       <c r="L59">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M59">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2409,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2417,13 +2414,13 @@
         <v>73</v>
       </c>
       <c r="K60">
-        <v>0.297029702970297</v>
+        <v>0.2211920529801324</v>
       </c>
       <c r="L60">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="M60">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2435,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>71</v>
+        <v>588</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2443,13 +2440,13 @@
         <v>74</v>
       </c>
       <c r="K61">
-        <v>0.2561894510226049</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="L61">
-        <v>238</v>
+        <v>32</v>
       </c>
       <c r="M61">
-        <v>238</v>
+        <v>32</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2461,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>691</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2469,13 +2466,13 @@
         <v>75</v>
       </c>
       <c r="K62">
-        <v>0.2476190476190476</v>
+        <v>0.2095238095238095</v>
       </c>
       <c r="L62">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M62">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2487,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2495,13 +2492,13 @@
         <v>76</v>
       </c>
       <c r="K63">
-        <v>0.2348993288590604</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="L63">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="M63">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2513,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>114</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2521,25 +2518,25 @@
         <v>77</v>
       </c>
       <c r="K64">
-        <v>0.2304635761589404</v>
+        <v>0.2038461538461538</v>
       </c>
       <c r="L64">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="M64">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>581</v>
+        <v>621</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2547,25 +2544,25 @@
         <v>78</v>
       </c>
       <c r="K65">
-        <v>0.2142857142857143</v>
+        <v>0.2018348623853211</v>
       </c>
       <c r="L65">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M65">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N65">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2573,13 +2570,13 @@
         <v>79</v>
       </c>
       <c r="K66">
-        <v>0.2058823529411765</v>
+        <v>0.201219512195122</v>
       </c>
       <c r="L66">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="M66">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2591,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>621</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2599,25 +2596,25 @@
         <v>80</v>
       </c>
       <c r="K67">
-        <v>0.2051282051282051</v>
+        <v>0.1983471074380165</v>
       </c>
       <c r="L67">
         <v>24</v>
       </c>
       <c r="M67">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2625,25 +2622,25 @@
         <v>81</v>
       </c>
       <c r="K68">
-        <v>0.1943573667711599</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="L68">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M68">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>257</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2651,25 +2648,25 @@
         <v>82</v>
       </c>
       <c r="K69">
-        <v>0.1890243902439024</v>
+        <v>0.172972972972973</v>
       </c>
       <c r="L69">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="M69">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>133</v>
+        <v>306</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2677,7 +2674,7 @@
         <v>83</v>
       </c>
       <c r="K70">
-        <v>0.180327868852459</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="L70">
         <v>22</v>
@@ -2695,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2703,25 +2700,25 @@
         <v>84</v>
       </c>
       <c r="K71">
-        <v>0.1756756756756757</v>
+        <v>0.1625615763546798</v>
       </c>
       <c r="L71">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="M71">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="N71">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>305</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2729,25 +2726,25 @@
         <v>85</v>
       </c>
       <c r="K72">
-        <v>0.1692307692307692</v>
+        <v>0.1604938271604938</v>
       </c>
       <c r="L72">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M72">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>108</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2755,13 +2752,13 @@
         <v>86</v>
       </c>
       <c r="K73">
-        <v>0.1625615763546798</v>
+        <v>0.1600877192982456</v>
       </c>
       <c r="L73">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="M73">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2773,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>170</v>
+        <v>383</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2781,25 +2778,25 @@
         <v>87</v>
       </c>
       <c r="K74">
-        <v>0.1592592592592593</v>
+        <v>0.1586715867158671</v>
       </c>
       <c r="L74">
         <v>43</v>
       </c>
       <c r="M74">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N74">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2833,13 +2830,13 @@
         <v>89</v>
       </c>
       <c r="K76">
-        <v>0.1535087719298246</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L76">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="M76">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2851,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>386</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2859,22 +2856,22 @@
         <v>90</v>
       </c>
       <c r="K77">
-        <v>0.1414634146341463</v>
+        <v>0.1435523114355231</v>
       </c>
       <c r="L77">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M77">
         <v>59</v>
       </c>
       <c r="N77">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
         <v>352</v>
@@ -2885,13 +2882,13 @@
         <v>91</v>
       </c>
       <c r="K78">
-        <v>0.1411042944785276</v>
+        <v>0.1386363636363636</v>
       </c>
       <c r="L78">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="M78">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2903,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>140</v>
+        <v>379</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2911,13 +2908,13 @@
         <v>92</v>
       </c>
       <c r="K79">
-        <v>0.140893470790378</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L79">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M79">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2929,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -2937,13 +2934,13 @@
         <v>93</v>
       </c>
       <c r="K80">
-        <v>0.137037037037037</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L80">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="M80">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -2955,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>233</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -2963,13 +2960,13 @@
         <v>94</v>
       </c>
       <c r="K81">
-        <v>0.1355932203389831</v>
+        <v>0.1242937853107345</v>
       </c>
       <c r="L81">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M81">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -2981,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -2989,13 +2986,13 @@
         <v>95</v>
       </c>
       <c r="K82">
-        <v>0.1340909090909091</v>
+        <v>0.1237113402061856</v>
       </c>
       <c r="L82">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="M82">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3007,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>381</v>
+        <v>255</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3015,13 +3012,13 @@
         <v>96</v>
       </c>
       <c r="K83">
-        <v>0.1260504201680672</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L83">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M83">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3033,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3041,13 +3038,13 @@
         <v>97</v>
       </c>
       <c r="K84">
-        <v>0.1048387096774194</v>
+        <v>0.1008064516129032</v>
       </c>
       <c r="L84">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M84">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3059,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3067,13 +3064,13 @@
         <v>98</v>
       </c>
       <c r="K85">
-        <v>0.09016393442622951</v>
+        <v>0.09289617486338798</v>
       </c>
       <c r="L85">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M85">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3085,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3093,25 +3090,25 @@
         <v>99</v>
       </c>
       <c r="K86">
-        <v>0.08785046728971962</v>
+        <v>0.09260991580916744</v>
       </c>
       <c r="L86">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="M86">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="N86">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O86">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>976</v>
+        <v>970</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3119,25 +3116,25 @@
         <v>100</v>
       </c>
       <c r="K87">
-        <v>0.08034433285509325</v>
+        <v>0.07360406091370558</v>
       </c>
       <c r="L87">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="M87">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="N87">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>641</v>
+        <v>365</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -3145,25 +3142,25 @@
         <v>101</v>
       </c>
       <c r="K88">
-        <v>0.06598984771573604</v>
+        <v>0.0705596107055961</v>
       </c>
       <c r="L88">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M88">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88">
-        <v>368</v>
+        <v>382</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -3171,25 +3168,25 @@
         <v>102</v>
       </c>
       <c r="K89">
-        <v>0.06273062730627306</v>
+        <v>0.06628242074927954</v>
       </c>
       <c r="L89">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M89">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <v>508</v>
+        <v>648</v>
       </c>
     </row>
     <row r="90" spans="10:17">
@@ -3197,25 +3194,25 @@
         <v>103</v>
       </c>
       <c r="K90">
-        <v>0.06168549087749783</v>
+        <v>0.06088560885608856</v>
       </c>
       <c r="L90">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="M90">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="N90">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O90">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>1080</v>
+        <v>509</v>
       </c>
     </row>
     <row r="91" spans="10:17">
@@ -3223,25 +3220,25 @@
         <v>104</v>
       </c>
       <c r="K91">
-        <v>0.06043956043956044</v>
+        <v>0.05950095969289827</v>
       </c>
       <c r="L91">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M91">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N91">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O91">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P91" t="b">
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>342</v>
+        <v>490</v>
       </c>
     </row>
     <row r="92" spans="10:17">
@@ -3249,25 +3246,25 @@
         <v>105</v>
       </c>
       <c r="K92">
-        <v>0.05780346820809248</v>
+        <v>0.05892547660311959</v>
       </c>
       <c r="L92">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="M92">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="N92">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="O92">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P92" t="b">
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>489</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="93" spans="10:17">
@@ -3275,51 +3272,25 @@
         <v>106</v>
       </c>
       <c r="K93">
-        <v>0.0558252427184466</v>
+        <v>0.03669724770642202</v>
       </c>
       <c r="L93">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M93">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N93">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="O93">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="P93" t="b">
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="94" spans="10:17">
-      <c r="J94" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K94">
-        <v>0.03149606299212598</v>
-      </c>
-      <c r="L94">
-        <v>24</v>
-      </c>
-      <c r="M94">
-        <v>29</v>
-      </c>
-      <c r="N94">
-        <v>0.83</v>
-      </c>
-      <c r="O94">
-        <v>0.17</v>
-      </c>
-      <c r="P94" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q94">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
   </sheetData>
